--- a/DocumentacionFinal/ACHP_Punto Funcion.xlsx
+++ b/DocumentacionFinal/ACHP_Punto Funcion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Uisrael 7mo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\PROYECTO-IS-II\DocumentacionFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,9 +202,6 @@
     <t>1. Encuesta a usuario, Formulario virtual que permitirá a los Hospitales privados recoger información de salud sobre sus pacientes</t>
   </si>
   <si>
-    <t>2. Autentificación de usuario, es necesario su número de cédula para poder ingresar a la aplicación a visualizar la información.</t>
-  </si>
-  <si>
     <t>3. Consejos de la aplicación, el usuario podrá visualizar consejos que ayuden a mitigar el contagio, dependiendo si se encuentra en una zona de riesgo.</t>
   </si>
   <si>
@@ -275,6 +272,9 @@
   </si>
   <si>
     <t>PFA</t>
+  </si>
+  <si>
+    <t>2. Autentificación de usuario, es necesario su número de cédula o pasaporte para poder ingresar a la aplicación a visualizar la información.</t>
   </si>
 </sst>
 </file>
@@ -848,7 +848,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68:F68"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,7 +925,7 @@
         <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -954,10 +954,10 @@
     </row>
     <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1541,14 +1541,14 @@
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" s="13">
         <f>(F18+K18+P18)*(0.65+(0.01*B36))</f>
         <v>582.40000000000009</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" s="13">
         <v>582</v>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="10"/>
     </row>
@@ -1678,7 +1678,7 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -1688,7 +1688,7 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -1697,7 +1697,7 @@
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="10">
         <v>80</v>
@@ -1707,7 +1707,7 @@
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="10">
         <v>20</v>
@@ -1717,7 +1717,7 @@
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52" s="10">
         <v>100</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
@@ -1738,7 +1738,7 @@
         <v>47</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <f>D60*0.01</f>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <f>D60*(0.05)</f>
